--- a/ReDI.School.-.Class.Progression.Tracking.xlsx
+++ b/ReDI.School.-.Class.Progression.Tracking.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="112">
   <si>
     <t>ReDI School - Progression Tracking</t>
   </si>
@@ -27,21 +27,19 @@
     <t>Thurs 03/10</t>
   </si>
   <si>
-    <t>by next Sunday (3/6)</t>
+    <t>by next Sunday (3/13)</t>
   </si>
   <si>
     <t>Group 1                                                           Goals                                               (Til &amp; Jonas)</t>
   </si>
   <si>
-    <t>* Review basic Github/Heroku commands, account setup, and deployment (to Heroku)
-* Explain database schema and rails migrations to manage database + resources.
-* Introduce routes and give more explanation of scaffold types, and what they create.
-* Expand on classes and methods, referencing the kickoff project as example, if possible.</t>
+    <t>1. Class models, methods and inheritance
+2. Controller logic, conventions and routes
+3. What are Ruby Gems?
+4. Views in HTML and CSS (Reading at home)</t>
   </si>
   <si>
-    <t>* Review basic Git commands
-* Finish git push with all students (nobody successfully pushed before)
-* HTML and CSS basics</t>
+    <t>Petr Prchal, Peter Ihme</t>
   </si>
   <si>
     <t>Jonas Halbach</t>
@@ -56,21 +54,16 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Database schema explanation, Modeling practice</t>
+    <t>Students are using Ruby language to set up project-specific models, controllers, placeholder views + routes.</t>
   </si>
   <si>
     <t>Homework</t>
   </si>
   <si>
-    <t>Use Ruby language to implement project-specific models, classes, views around resource/s. Explain database schema &amp; migration concepts</t>
+    <t>Students understand how views work with controllers, and practice the 5-hour HTML/CSS module in www.freecodecamp.com</t>
   </si>
   <si>
     <t>Group 2                   Goals              (Sebastian)</t>
-  </si>
-  <si>
-    <t>* Introduce routes and give more explanation of scaffold types, and what they create.
-* Expand on classes and methods, referencing the kickoff project as example, if possible.
-</t>
   </si>
   <si>
     <t>Henning Peters</t>
@@ -79,17 +72,11 @@
     <t>Dennis Oelkers</t>
   </si>
   <si>
-    <t>Use Ruby language to implement project-specific models, classes, views around resource/s. Explain database schema &amp; migration concept</t>
-  </si>
-  <si>
     <t xml:space="preserve">Group 3                 (Antonio)           </t>
   </si>
   <si>
-    <t>Continued from week 1. More practice on:
-* the command line/bash 
-* basic elements of Ruby language
-* using expressions (variables, arrays, strings, hashes, classes, methods, loops) 
-* customizing rails application components - MVC</t>
+    <t>1. Class models, methods and inheritance
+2. Controller logic, conventions and routes</t>
   </si>
   <si>
     <t>Richard Garbutt</t>
@@ -98,7 +85,7 @@
     <t>Genevieve Parkes</t>
   </si>
   <si>
-    <t>Basic static website based on project interest/s, stored in the github.com/ReDi-School/redi-projects repo Schema explanation, modeling practice</t>
+    <t>Students review the MVC concept and syntax for writing classes &amp; controllers. Also cover inheritance (ex., using "Orange Tree" exercise from Chris Pine's online reference). Placeholder views can be created to demonstrate controller&lt;&gt;view logic.</t>
   </si>
   <si>
     <t>Group 4                    (Joe &amp; Diaa)</t>
@@ -110,16 +97,13 @@
     <t>Sebastian Marambio, Diaa Sami</t>
   </si>
   <si>
-    <t xml:space="preserve">Basic static website based on project interest/s, stored in the github.com/ReDi-School/redi-projects repo </t>
-  </si>
-  <si>
     <t>Group 5                           (Nynne &amp; Yasmin)</t>
   </si>
   <si>
     <t>Sebastian Uribe, Alina Baciu</t>
   </si>
   <si>
-    <t>Alina Baciu</t>
+    <t>Stefan Gränitz</t>
   </si>
   <si>
     <t>Group 6                       (Chris)</t>
@@ -131,12 +115,6 @@
     <t>Jason Banks, Dominic Latham</t>
   </si>
   <si>
-    <t xml:space="preserve"> As far as i noticed, they are very eager to start building a webpage. I believe the corect strategy here would be every week to continue to stress the basic functionalities as well as giving the change to get enthusiastic by building something new</t>
-  </si>
-  <si>
-    <t>(Jason) We looked at the loop HW exercise ("for i in 0..team.length") and continued developing close-reading skills, understanding error messages/debugging, loops logic, and also bit of dipping into ruby quirks (i.e., when one of the students did something super "wrong" but it "worked" anyway). Some of the students are moving faster than others--going forward, I will (need to) have a few "next steps" ready to go so I can keep everyone moving forward.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sun 02/28 lesson </t>
   </si>
   <si>
@@ -144,6 +122,20 @@
   </si>
   <si>
     <t>Thurs 03/03</t>
+  </si>
+  <si>
+    <t>by next Sunday (3/6)</t>
+  </si>
+  <si>
+    <t>* Review basic Github/Heroku commands, account setup, and deployment (to Heroku)
+* Explain database schema and rails migrations to manage database + resources.
+* Introduce routes and give more explanation of scaffold types, and what they create.
+* Expand on classes and methods, referencing the kickoff project as example, if possible.</t>
+  </si>
+  <si>
+    <t>* Review basic Git commands
+* Finish git push with all students (nobody successfully pushed before)
+* HTML and CSS basics</t>
   </si>
   <si>
     <t>work though basic git command (clone, status, add, commit, pull push) and practiced it with a prepared repository. Most students managed to deploy to the class one 1 heroku at the end. Explained the basic git- functionality ( 3 different stages).</t>
@@ -154,12 +146,18 @@
 * They know how to put styles on their HTML (style attribute, style tag, load it from file)</t>
   </si>
   <si>
+    <t>Database schema explanation, Modeling practice</t>
+  </si>
+  <si>
     <t>Adding a controller, view and route to the application the group started to develop with a scaffold on the first session.
 Make the view as pretty as possible.
 </t>
   </si>
   <si>
     <t>Make a two columns page layout</t>
+  </si>
+  <si>
+    <t>Use Ruby language to implement project-specific models, classes, views around resource/s. Explain database schema &amp; migration concepts</t>
   </si>
   <si>
     <t>* Review basic Github/Heroku commands, account setup, and deployment (to Heroku)
@@ -179,6 +177,16 @@
     <t>Everyone was able to complete deployment to heroku. Lots of practice with git commands and everyone is eager to start styling or at least working on their projects again.</t>
   </si>
   <si>
+    <t>Use Ruby language to implement project-specific models, classes, views around resource/s. Explain database schema &amp; migration concept</t>
+  </si>
+  <si>
+    <t>Continued from week 1. More practice on:
+* the command line/bash 
+* basic elements of Ruby language
+* using expressions (variables, arrays, strings, hashes, classes, methods, loops) 
+* customizing rails application components - MVC</t>
+  </si>
+  <si>
     <t xml:space="preserve"> - used irb with the terminal
 - practiced writing &amp; using a class 
 - discussed class properties
@@ -187,6 +195,9 @@
 - created an array of instances
 - repeated the deploy on heroku.
 - reviewed rails generation, git, gem file, rails structure + database.yml.                                                                                                The class still seems a bit confused about heroku and the command line of rails, git. Definitely need to review the commands for practice with rails, rake, git, etc</t>
+  </si>
+  <si>
+    <t>Basic static website based on project interest/s, stored in the github.com/ReDi-School/redi-projects repo Schema explanation, modeling practice</t>
   </si>
   <si>
     <t xml:space="preserve"> Everyone has a working rails application with a few pages and a static navigation</t>
@@ -200,10 +211,16 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Basic static website based on project interest/s, stored in the github.com/ReDi-School/redi-projects repo </t>
+  </si>
+  <si>
     <t>Add content to the pages</t>
   </si>
   <si>
     <t>Continue adding content to pages (HTML + CSS). Some student specific homework assigned for catching up.</t>
+  </si>
+  <si>
+    <t>Alina Baciu</t>
   </si>
   <si>
     <t>- It was way slower than I was expecting ...  
@@ -215,7 +232,7 @@
     <t xml:space="preserve">Discussed classes; instances; instance, global and local variables; Created .rb files whiles doing quizzes on codequizzes.com. </t>
   </si>
   <si>
-    <t>???</t>
+    <t xml:space="preserve">Practicing ruby, different concepts: classes, inheritance, modules. Continued on codequizzes.com. Group members have different levels of knowledge &amp; understanding. In my opinion, there's too much time that goes wasted on explaining the same things over and over and over again. </t>
   </si>
   <si>
     <t>Finish the section about classes &amp; modules on codequizzes.com, play with codeacademy to try and get more familiar with the various concepts.</t>
@@ -249,6 +266,12 @@
 - Students modified the code in the /public folder to change the 404.html and to include a copy of the NYTimes homepage
 - Students modified the style of their copy of the NYTimes homepage</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> As far as i noticed, they are very eager to start building a webpage. I believe the corect strategy here would be every week to continue to stress the basic functionalities as well as giving the change to get enthusiastic by building something new</t>
+  </si>
+  <si>
+    <t>(Jason) We looked at the loop HW exercise ("for i in 0..team.length") and continued developing close-reading skills, understanding error messages/debugging, loops logic, and also bit of dipping into ruby quirks (i.e., when one of the students did something super "wrong" but it "worked" anyway). Some of the students are moving faster than others--going forward, I will (need to) have a few "next steps" ready to go so I can keep everyone moving forward.</t>
   </si>
   <si>
     <t>Finish level 6 in tryruby.org, install the DevLearn app on their smartphones to get exposure to HTML &amp; CSS</t>
@@ -520,8 +543,8 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <sz val="9.0"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -551,11 +574,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <color rgb="FF000000"/>
     </font>
     <font>
@@ -574,6 +592,11 @@
     <font>
       <i/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="12">
@@ -621,14 +644,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93EDD6"/>
-        <bgColor rgb="FF93EDD6"/>
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFFFE599"/>
+        <fgColor rgb="FF93EDD6"/>
+        <bgColor rgb="FF93EDD6"/>
       </patternFill>
     </fill>
     <fill>
@@ -644,7 +667,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -673,11 +696,25 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB7B7B7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -708,7 +745,7 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
@@ -740,20 +777,17 @@
     <xf borderId="2" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
@@ -765,7 +799,7 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="top"/>
@@ -785,10 +819,13 @@
     <xf borderId="2" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="2" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -797,46 +834,55 @@
     <xf borderId="2" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="11" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="11" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="11" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="2" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="11" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="11" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="11" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="9" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -846,10 +892,10 @@
     <xf borderId="2" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -880,7 +926,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="77.29"/>
-    <col customWidth="1" min="3" max="3" width="71.71"/>
+    <col customWidth="1" min="3" max="3" width="64.71"/>
     <col customWidth="1" min="4" max="4" width="26.71"/>
     <col customWidth="1" min="5" max="5" width="22.57"/>
   </cols>
@@ -1066,15 +1112,15 @@
         <v>15</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="12"/>
@@ -1106,13 +1152,13 @@
       <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="12"/>
@@ -1150,8 +1196,8 @@
       <c r="D8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>19</v>
+      <c r="E8" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -1176,19 +1222,19 @@
       <c r="Z8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="D9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="12"/>
@@ -1214,18 +1260,18 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" ht="129.0" customHeight="1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34" t="s">
-        <v>24</v>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1250,15 +1296,15 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -1282,19 +1328,19 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="12"/>
@@ -1320,18 +1366,18 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="34" t="s">
-        <v>28</v>
+      <c r="D13" s="31"/>
+      <c r="E13" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1356,19 +1402,19 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="38"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -1392,19 +1438,19 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="s">
-        <v>29</v>
+      <c r="A15" s="26" t="s">
+        <v>26</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>21</v>
+      <c r="B15" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="12"/>
@@ -1442,8 +1488,8 @@
       <c r="D16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>28</v>
+      <c r="E16" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1480,7 +1526,7 @@
       <c r="D17" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="38"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -1505,18 +1551,18 @@
     </row>
     <row r="18">
       <c r="A18" s="48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>21</v>
+      <c r="B18" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="7"/>
@@ -1549,13 +1595,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>28</v>
+      <c r="E19" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -1592,7 +1638,7 @@
       <c r="D20" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="38"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -25474,16 +25520,16 @@
     <row r="2">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -25512,15 +25558,15 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="12"/>
@@ -25550,14 +25596,14 @@
         <v>10</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
-        <v>12</v>
+      <c r="E4" s="55" t="s">
+        <v>40</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -25586,14 +25632,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="56" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
-        <v>14</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -25625,12 +25671,12 @@
         <v>44</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="12"/>
@@ -25662,14 +25708,14 @@
       <c r="B7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>12</v>
+      <c r="E7" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -25700,14 +25746,14 @@
       <c r="B8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="58" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>19</v>
+      <c r="E8" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -25732,19 +25778,19 @@
       <c r="Z8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="D9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="12"/>
@@ -25770,18 +25816,18 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" ht="129.0" customHeight="1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>49</v>
+      <c r="B10" s="31" t="s">
+        <v>51</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34" t="s">
-        <v>24</v>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -25806,15 +25852,15 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -25838,19 +25884,19 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="12"/>
@@ -25876,20 +25922,20 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>51</v>
+      <c r="C13" s="31" t="s">
+        <v>54</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>52</v>
+      <c r="D13" s="31" t="s">
+        <v>55</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>28</v>
+      <c r="E13" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -25914,19 +25960,19 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>53</v>
+      <c r="B14" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="38"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -25950,19 +25996,19 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="s">
-        <v>29</v>
+      <c r="A15" s="26" t="s">
+        <v>26</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>21</v>
+      <c r="B15" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="12"/>
@@ -25992,16 +26038,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>28</v>
+      <c r="E16" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -26029,16 +26075,16 @@
       <c r="A17" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>57</v>
+      <c r="B17" s="53" t="s">
+        <v>63</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D17" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="38"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -26063,18 +26109,18 @@
     </row>
     <row r="18">
       <c r="A18" s="48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>21</v>
+      <c r="B18" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="7"/>
@@ -26104,16 +26150,16 @@
         <v>10</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>28</v>
+      <c r="E19" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -26142,7 +26188,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>11</v>
@@ -26150,7 +26196,7 @@
       <c r="D20" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="38"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -50032,13 +50078,13 @@
     <row r="2">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -50068,15 +50114,15 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="12"/>
@@ -50106,16 +50152,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>69</v>
+      <c r="E4" s="55" t="s">
+        <v>76</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -50144,16 +50190,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>72</v>
+      <c r="D5" s="59" t="s">
+        <v>79</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>12</v>
+      <c r="E5" s="55" t="s">
+        <v>40</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -50182,15 +50228,15 @@
         <v>15</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="12"/>
@@ -50220,16 +50266,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="55" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>69</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -50254,20 +50300,20 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" ht="59.25" customHeight="1">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>12</v>
+      <c r="E8" s="55" t="s">
+        <v>40</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -50292,17 +50338,17 @@
       <c r="Z8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>23</v>
+      <c r="D9" s="28" t="s">
+        <v>21</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -50328,17 +50374,17 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>82</v>
+      <c r="D10" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -50364,17 +50410,17 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>83</v>
+      <c r="B11" s="35" t="s">
+        <v>90</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>84</v>
+      <c r="C11" s="36" t="s">
+        <v>91</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>85</v>
+      <c r="D11" s="35" t="s">
+        <v>92</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -50400,17 +50446,17 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="27" t="s">
-        <v>25</v>
+      <c r="A12" s="26" t="s">
+        <v>23</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>64</v>
+      <c r="B12" s="27" t="s">
+        <v>71</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>86</v>
+      <c r="C12" s="28" t="s">
+        <v>93</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>87</v>
+      <c r="D12" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -50436,17 +50482,17 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>89</v>
+      <c r="C13" s="31" t="s">
+        <v>96</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>90</v>
+      <c r="D13" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -50472,17 +50518,17 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>91</v>
+      <c r="B14" s="35" t="s">
+        <v>98</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>92</v>
+      <c r="C14" s="35" t="s">
+        <v>99</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>93</v>
+      <c r="D14" s="35" t="s">
+        <v>100</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -50508,17 +50554,17 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="s">
-        <v>29</v>
+      <c r="A15" s="26" t="s">
+        <v>26</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>64</v>
+      <c r="B15" s="27" t="s">
+        <v>71</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -50548,12 +50594,12 @@
         <v>10</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="61" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="7"/>
@@ -50584,12 +50630,12 @@
         <v>13</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
-      <c r="D17" s="59"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -50615,16 +50661,16 @@
     </row>
     <row r="18">
       <c r="A18" s="48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>64</v>
+      <c r="B18" s="27" t="s">
+        <v>71</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -50654,13 +50700,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -50690,13 +50736,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
